--- a/prix/levis.xlsx
+++ b/prix/levis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\peinture\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caisse5\Desktop\site-internet\peintures\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A885A87-C2F5-4A1B-9FCF-FCCDF0D19FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7624A490-26F7-472E-8B69-F8F130F09345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -995,18 +995,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1183,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1198,9 +1192,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1208,6 +1199,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1288,8 +1282,11 @@
     <xf numFmtId="49" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1627,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G446"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H142" sqref="H142"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1643,22 +1640,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>278</v>
       </c>
       <c r="G1" s="2"/>
@@ -1667,39 +1664,39 @@
       <c r="A2" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="37">
         <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6">
-        <v>4</v>
+      <c r="F2" s="36">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="37">
         <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="36">
         <v>6</v>
       </c>
     </row>
@@ -1707,39 +1704,39 @@
       <c r="A4" t="s">
         <v>294</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="37">
         <v>94</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6">
-        <v>5</v>
+      <c r="F4" s="36">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>294</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="37">
         <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="36">
         <v>5</v>
       </c>
     </row>
@@ -1747,39 +1744,39 @@
       <c r="A6" t="s">
         <v>294</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="37">
         <v>175</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6">
-        <v>5</v>
+      <c r="F6" s="36">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>294</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="37">
         <v>175</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="36">
         <v>1</v>
       </c>
     </row>
@@ -1787,39 +1784,39 @@
       <c r="A8" t="s">
         <v>294</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="37">
         <v>175</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6">
-        <v>8</v>
+      <c r="F8" s="36">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>295</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="37">
         <v>47.25</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="36">
         <v>2</v>
       </c>
     </row>
@@ -1827,19 +1824,19 @@
       <c r="A10" t="s">
         <v>296</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="37">
         <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="36">
         <v>2</v>
       </c>
     </row>
@@ -1847,19 +1844,19 @@
       <c r="A11" t="s">
         <v>296</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="37">
         <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="36">
         <v>0</v>
       </c>
     </row>
@@ -1867,19 +1864,19 @@
       <c r="A12" t="s">
         <v>296</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="37">
         <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="36">
         <v>4</v>
       </c>
     </row>
@@ -1887,19 +1884,19 @@
       <c r="A13" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="37">
         <v>94</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="36">
         <v>2</v>
       </c>
     </row>
@@ -1907,19 +1904,19 @@
       <c r="A14" t="s">
         <v>296</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="37">
         <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="36">
         <v>0</v>
       </c>
     </row>
@@ -1927,19 +1924,19 @@
       <c r="A15" t="s">
         <v>296</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="37">
         <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="36">
         <v>4</v>
       </c>
     </row>
@@ -1947,19 +1944,19 @@
       <c r="A16" t="s">
         <v>296</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="37">
         <v>175</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="36">
         <v>3</v>
       </c>
     </row>
@@ -1967,39 +1964,39 @@
       <c r="A17" t="s">
         <v>296</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="37">
         <v>175</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="6">
-        <v>2</v>
+      <c r="F17" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>296</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="37">
         <v>175</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="36">
         <v>5</v>
       </c>
     </row>
@@ -2010,13 +2007,13 @@
       <c r="C19" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="37">
         <v>46.95</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="36">
         <v>0</v>
       </c>
     </row>
@@ -2024,19 +2021,19 @@
       <c r="A20" t="s">
         <v>297</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="37">
         <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="36">
         <v>2</v>
       </c>
     </row>
@@ -2044,19 +2041,19 @@
       <c r="A21" t="s">
         <v>297</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="37">
         <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="36">
         <v>3</v>
       </c>
     </row>
@@ -2064,19 +2061,19 @@
       <c r="A22" t="s">
         <v>297</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="37">
         <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="36">
         <v>3</v>
       </c>
     </row>
@@ -2084,19 +2081,19 @@
       <c r="A23" t="s">
         <v>297</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="37">
         <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="36">
         <v>0</v>
       </c>
     </row>
@@ -2104,19 +2101,19 @@
       <c r="A24" t="s">
         <v>297</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="37">
         <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="36">
         <v>3</v>
       </c>
     </row>
@@ -2124,19 +2121,19 @@
       <c r="A25" t="s">
         <v>297</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="37">
         <v>58</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="36">
         <v>2</v>
       </c>
     </row>
@@ -2144,19 +2141,19 @@
       <c r="A26" t="s">
         <v>297</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="37">
         <v>135.5</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="36">
         <v>2</v>
       </c>
     </row>
@@ -2164,19 +2161,19 @@
       <c r="A27" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="37">
         <v>135.5</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="36">
         <v>3</v>
       </c>
     </row>
@@ -2184,19 +2181,19 @@
       <c r="A28" t="s">
         <v>297</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="37">
         <v>135.5</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="36">
         <v>7</v>
       </c>
     </row>
@@ -2204,39 +2201,39 @@
       <c r="A29" t="s">
         <v>293</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="37">
         <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="6">
-        <v>6</v>
+      <c r="F29" s="36">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>293</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="37">
         <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="36">
         <v>6</v>
       </c>
     </row>
@@ -2244,19 +2241,19 @@
       <c r="A31" t="s">
         <v>293</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="37">
         <v>36</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="36">
         <v>0</v>
       </c>
     </row>
@@ -2264,39 +2261,39 @@
       <c r="A32" t="s">
         <v>293</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="37">
         <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="6">
-        <v>7</v>
+      <c r="F32" s="36">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>293</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="37">
         <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="36">
         <v>1</v>
       </c>
     </row>
@@ -2304,19 +2301,19 @@
       <c r="A34" t="s">
         <v>293</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="37">
         <v>65</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="36">
         <v>5</v>
       </c>
     </row>
@@ -2324,19 +2321,19 @@
       <c r="A35" t="s">
         <v>293</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D35" s="3">
-        <v>145</v>
+      <c r="D35" s="37">
+        <v>150</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="36">
         <v>3</v>
       </c>
     </row>
@@ -2344,19 +2341,19 @@
       <c r="A36" t="s">
         <v>293</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D36" s="3">
-        <v>145</v>
+      <c r="D36" s="37">
+        <v>150</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="36">
         <v>0</v>
       </c>
     </row>
@@ -2364,39 +2361,39 @@
       <c r="A37" t="s">
         <v>293</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D37" s="3">
-        <v>145</v>
+      <c r="D37" s="37">
+        <v>150</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="6">
-        <v>4</v>
+      <c r="F37" s="36">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>292</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="21" t="s">
         <v>73</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="37">
         <v>36</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="36">
         <v>7</v>
       </c>
     </row>
@@ -2404,19 +2401,19 @@
       <c r="A39" t="s">
         <v>292</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="21" t="s">
         <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="37">
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="36">
         <v>8</v>
       </c>
     </row>
@@ -2424,19 +2421,19 @@
       <c r="A40" t="s">
         <v>292</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="21" t="s">
         <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="37">
         <v>36</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="36">
         <v>10</v>
       </c>
     </row>
@@ -2444,19 +2441,19 @@
       <c r="A41" t="s">
         <v>292</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="37">
         <v>65</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="36">
         <v>4</v>
       </c>
     </row>
@@ -2464,19 +2461,19 @@
       <c r="A42" t="s">
         <v>292</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="37">
         <v>65</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="36">
         <v>3</v>
       </c>
     </row>
@@ -2484,19 +2481,19 @@
       <c r="A43" t="s">
         <v>292</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="22" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="37">
         <v>65</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="36">
         <v>4</v>
       </c>
     </row>
@@ -2504,19 +2501,19 @@
       <c r="A44" t="s">
         <v>292</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="23" t="s">
         <v>85</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="37">
         <v>145</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="36">
         <v>5</v>
       </c>
     </row>
@@ -2524,19 +2521,19 @@
       <c r="A45" t="s">
         <v>292</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="23" t="s">
         <v>87</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="37">
         <v>145</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="36">
         <v>0</v>
       </c>
     </row>
@@ -2544,19 +2541,19 @@
       <c r="A46" t="s">
         <v>292</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="23" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="37">
         <v>145</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="36">
         <v>3</v>
       </c>
     </row>
@@ -2564,19 +2561,19 @@
       <c r="A47" t="s">
         <v>301</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="24" t="s">
         <v>91</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="37">
         <v>29.8</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="36">
         <v>3</v>
       </c>
     </row>
@@ -2584,19 +2581,19 @@
       <c r="A48" t="s">
         <v>301</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="37">
         <v>29.8</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="36">
         <v>4</v>
       </c>
     </row>
@@ -2604,19 +2601,19 @@
       <c r="A49" t="s">
         <v>301</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="24" t="s">
         <v>95</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="37">
         <v>29.8</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="36">
         <v>2</v>
       </c>
     </row>
@@ -2624,19 +2621,19 @@
       <c r="A50" t="s">
         <v>301</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="25" t="s">
         <v>97</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="37">
         <v>69.150000000000006</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="36">
         <v>1</v>
       </c>
     </row>
@@ -2644,19 +2641,19 @@
       <c r="A51" t="s">
         <v>301</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="25" t="s">
         <v>99</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="37">
         <v>69.150000000000006</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="36">
         <v>2</v>
       </c>
     </row>
@@ -2664,19 +2661,19 @@
       <c r="A52" t="s">
         <v>301</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="25" t="s">
         <v>101</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="37">
         <v>69.150000000000006</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="36">
         <v>3</v>
       </c>
     </row>
@@ -2684,19 +2681,19 @@
       <c r="A53" t="s">
         <v>301</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="26" t="s">
         <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="37">
         <v>150.49</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="36">
         <v>3</v>
       </c>
     </row>
@@ -2704,19 +2701,19 @@
       <c r="A54" t="s">
         <v>301</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="26" t="s">
         <v>105</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="37">
         <v>150.49</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="36">
         <v>2</v>
       </c>
     </row>
@@ -2724,19 +2721,19 @@
       <c r="A55" t="s">
         <v>301</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="26" t="s">
         <v>107</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="37">
         <v>150.49</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="36">
         <v>0</v>
       </c>
     </row>
@@ -2744,19 +2741,19 @@
       <c r="A56" t="s">
         <v>303</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="27" t="s">
         <v>109</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="37">
         <v>35</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="36">
         <v>5</v>
       </c>
     </row>
@@ -2764,19 +2761,19 @@
       <c r="A57" t="s">
         <v>303</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="27" t="s">
         <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="37">
         <v>35</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="36">
         <v>5</v>
       </c>
     </row>
@@ -2784,19 +2781,19 @@
       <c r="A58" t="s">
         <v>303</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="27" t="s">
         <v>113</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="37">
         <v>35</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="36">
         <v>5</v>
       </c>
     </row>
@@ -2804,39 +2801,39 @@
       <c r="A59" t="s">
         <v>303</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="28" t="s">
         <v>115</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="37">
         <v>151</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F59" s="6">
-        <v>3</v>
+      <c r="F59" s="36">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>303</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="28" t="s">
         <v>117</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="37">
         <v>151</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="36">
         <v>0</v>
       </c>
     </row>
@@ -2844,19 +2841,19 @@
       <c r="A61" t="s">
         <v>303</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="28" t="s">
         <v>119</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="37">
         <v>151</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="36">
         <v>4</v>
       </c>
     </row>
@@ -2864,19 +2861,19 @@
       <c r="A62" t="s">
         <v>304</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="29" t="s">
         <v>121</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="37">
         <v>37</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="36">
         <v>5</v>
       </c>
     </row>
@@ -2884,19 +2881,19 @@
       <c r="A63" t="s">
         <v>304</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="29" t="s">
         <v>123</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="37">
         <v>37</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="36">
         <v>6</v>
       </c>
     </row>
@@ -2904,19 +2901,19 @@
       <c r="A64" t="s">
         <v>304</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="29" t="s">
         <v>125</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="37">
         <v>37</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="36">
         <v>0</v>
       </c>
     </row>
@@ -2924,19 +2921,19 @@
       <c r="A65" t="s">
         <v>304</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="19" t="s">
         <v>127</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="37">
         <v>42.300000000000004</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="36">
         <v>0</v>
       </c>
     </row>
@@ -2944,19 +2941,19 @@
       <c r="A66" t="s">
         <v>304</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="19" t="s">
         <v>129</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="37">
         <v>42.300000000000004</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="36">
         <v>3</v>
       </c>
     </row>
@@ -2964,19 +2961,19 @@
       <c r="A67" t="s">
         <v>304</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="19" t="s">
         <v>131</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="37">
         <v>42.300000000000004</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="36">
         <v>3</v>
       </c>
     </row>
@@ -2984,19 +2981,19 @@
       <c r="A68" t="s">
         <v>304</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="37">
         <v>109.49000000000001</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3004,19 +3001,19 @@
       <c r="A69" t="s">
         <v>304</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="37">
         <v>96.850000000000009</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="36">
         <v>2</v>
       </c>
     </row>
@@ -3024,19 +3021,19 @@
       <c r="A70" t="s">
         <v>304</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="20" t="s">
         <v>137</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="37">
         <v>96.850000000000009</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70" s="36">
         <v>2</v>
       </c>
     </row>
@@ -3044,19 +3041,19 @@
       <c r="A71" t="s">
         <v>305</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="30" t="s">
         <v>139</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="37">
         <v>37</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3064,19 +3061,19 @@
       <c r="A72" t="s">
         <v>305</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="30" t="s">
         <v>141</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="37">
         <v>34</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3084,19 +3081,19 @@
       <c r="A73" t="s">
         <v>305</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="30" t="s">
         <v>143</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="37">
         <v>34</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="36">
         <v>4</v>
       </c>
     </row>
@@ -3104,19 +3101,19 @@
       <c r="A74" t="s">
         <v>305</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="31" t="s">
         <v>145</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="37">
         <v>46.5</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74" s="36">
         <v>2</v>
       </c>
     </row>
@@ -3124,19 +3121,19 @@
       <c r="A75" t="s">
         <v>305</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="31" t="s">
         <v>147</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="37">
         <v>60</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3144,19 +3141,19 @@
       <c r="A76" t="s">
         <v>305</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="31" t="s">
         <v>149</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="37">
         <v>60</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="36">
         <v>7</v>
       </c>
     </row>
@@ -3164,19 +3161,19 @@
       <c r="A77" t="s">
         <v>305</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="32" t="s">
         <v>151</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="37">
         <v>136</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="36">
         <v>2</v>
       </c>
     </row>
@@ -3184,19 +3181,19 @@
       <c r="A78" t="s">
         <v>305</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="32" t="s">
         <v>153</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="37">
         <v>136</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="36">
         <v>2</v>
       </c>
     </row>
@@ -3204,19 +3201,19 @@
       <c r="A79" t="s">
         <v>305</v>
       </c>
-      <c r="B79" s="33" t="s">
+      <c r="B79" s="32" t="s">
         <v>155</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="37">
         <v>136</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3224,39 +3221,39 @@
       <c r="A80" t="s">
         <v>300</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="15" t="s">
         <v>157</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="37">
         <v>53</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F80" s="6">
-        <v>3</v>
+      <c r="F80" s="36">
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>300</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="15" t="s">
         <v>159</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="37">
         <v>53</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3264,19 +3261,19 @@
       <c r="A82" t="s">
         <v>300</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="16" t="s">
         <v>161</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="37">
         <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F82" s="36">
         <v>3</v>
       </c>
     </row>
@@ -3284,19 +3281,19 @@
       <c r="A83" t="s">
         <v>300</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="37">
         <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F83" s="36">
         <v>3</v>
       </c>
     </row>
@@ -3307,13 +3304,13 @@
       <c r="C84" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="37">
         <v>36</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="36">
         <v>3</v>
       </c>
     </row>
@@ -3324,13 +3321,13 @@
       <c r="C85" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="37">
         <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="36">
         <v>3</v>
       </c>
     </row>
@@ -3338,19 +3335,19 @@
       <c r="A86" t="s">
         <v>299</v>
       </c>
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="26" t="s">
         <v>168</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="37">
         <v>39.5</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="36">
         <v>2</v>
       </c>
     </row>
@@ -3358,19 +3355,19 @@
       <c r="A87" t="s">
         <v>299</v>
       </c>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="26" t="s">
         <v>170</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="37">
         <v>39.5</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F87" s="36">
         <v>2</v>
       </c>
     </row>
@@ -3378,39 +3375,39 @@
       <c r="A88" t="s">
         <v>299</v>
       </c>
-      <c r="B88" s="28" t="s">
+      <c r="B88" s="27" t="s">
         <v>172</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="37">
         <v>86</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F88" s="6">
-        <v>2</v>
+      <c r="F88" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>299</v>
       </c>
-      <c r="B89" s="28" t="s">
+      <c r="B89" s="27" t="s">
         <v>174</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="37">
         <v>86</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89" s="36">
         <v>3</v>
       </c>
     </row>
@@ -3418,19 +3415,19 @@
       <c r="A90" t="s">
         <v>299</v>
       </c>
-      <c r="B90" s="29" t="s">
+      <c r="B90" s="28" t="s">
         <v>176</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="37">
         <v>130</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F90" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3438,19 +3435,19 @@
       <c r="A91" t="s">
         <v>299</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="B91" s="28" t="s">
         <v>178</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="37">
         <v>130</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="36">
         <v>2</v>
       </c>
     </row>
@@ -3461,13 +3458,13 @@
       <c r="C92" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="37">
         <v>34.5</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="36">
         <v>3</v>
       </c>
     </row>
@@ -3478,13 +3475,13 @@
       <c r="C93" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="37">
         <v>71.5</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3495,13 +3492,13 @@
       <c r="C94" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="37">
         <v>131.5</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3509,19 +3506,19 @@
       <c r="A95" t="s">
         <v>298</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="21" t="s">
         <v>186</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="37">
         <v>36</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="36">
         <v>3</v>
       </c>
     </row>
@@ -3529,19 +3526,19 @@
       <c r="A96" t="s">
         <v>298</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="21" t="s">
         <v>188</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="37">
         <v>36</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96" s="36">
         <v>2</v>
       </c>
     </row>
@@ -3549,19 +3546,19 @@
       <c r="A97" t="s">
         <v>298</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="22" t="s">
         <v>190</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="37">
         <v>78</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F97" s="36">
         <v>3</v>
       </c>
     </row>
@@ -3569,19 +3566,19 @@
       <c r="A98" t="s">
         <v>298</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" s="22" t="s">
         <v>192</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="37">
         <v>78</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98" s="36">
         <v>2</v>
       </c>
     </row>
@@ -3589,19 +3586,19 @@
       <c r="A99" t="s">
         <v>298</v>
       </c>
-      <c r="B99" s="24" t="s">
+      <c r="B99" s="23" t="s">
         <v>194</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="37">
         <v>145</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F99" s="36">
         <v>2</v>
       </c>
     </row>
@@ -3609,19 +3606,19 @@
       <c r="A100" t="s">
         <v>298</v>
       </c>
-      <c r="B100" s="24" t="s">
+      <c r="B100" s="23" t="s">
         <v>196</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="37">
         <v>145</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100" s="36">
         <v>2</v>
       </c>
     </row>
@@ -3632,13 +3629,13 @@
       <c r="C101" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="37">
         <v>55</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F101" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3652,13 +3649,13 @@
       <c r="C102" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="37">
         <v>35.5</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F102" s="36">
         <v>4</v>
       </c>
     </row>
@@ -3666,19 +3663,19 @@
       <c r="A103" t="s">
         <v>306</v>
       </c>
-      <c r="B103" s="31" t="s">
+      <c r="B103" s="30" t="s">
         <v>202</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="37">
         <v>35.5</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F103" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3686,19 +3683,19 @@
       <c r="A104" t="s">
         <v>306</v>
       </c>
-      <c r="B104" s="31" t="s">
+      <c r="B104" s="30" t="s">
         <v>204</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="37">
         <v>35.5</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104" s="36">
         <v>4</v>
       </c>
     </row>
@@ -3706,19 +3703,19 @@
       <c r="A105" t="s">
         <v>306</v>
       </c>
-      <c r="B105" s="32" t="s">
+      <c r="B105" s="31" t="s">
         <v>206</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="37">
         <v>53.95</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F105" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3726,19 +3723,19 @@
       <c r="A106" t="s">
         <v>306</v>
       </c>
-      <c r="B106" s="32" t="s">
+      <c r="B106" s="31" t="s">
         <v>208</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="37">
         <v>59</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F106" s="36">
         <v>6</v>
       </c>
     </row>
@@ -3746,19 +3743,19 @@
       <c r="A107" t="s">
         <v>306</v>
       </c>
-      <c r="B107" s="32" t="s">
+      <c r="B107" s="31" t="s">
         <v>210</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="37">
         <v>53.95</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F107" s="36">
         <v>4</v>
       </c>
     </row>
@@ -3766,19 +3763,19 @@
       <c r="A108" t="s">
         <v>306</v>
       </c>
-      <c r="B108" s="33" t="s">
+      <c r="B108" s="32" t="s">
         <v>212</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D108" s="3">
-        <v>135</v>
+      <c r="D108" s="37">
+        <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F108" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3786,19 +3783,19 @@
       <c r="A109" t="s">
         <v>306</v>
       </c>
-      <c r="B109" s="33" t="s">
+      <c r="B109" s="32" t="s">
         <v>214</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D109" s="3">
-        <v>135</v>
+      <c r="D109" s="37">
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F109" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3806,19 +3803,19 @@
       <c r="A110" t="s">
         <v>306</v>
       </c>
-      <c r="B110" s="33" t="s">
+      <c r="B110" s="32" t="s">
         <v>216</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D110" s="3">
-        <v>135</v>
+      <c r="D110" s="37">
+        <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F110" s="6">
+      <c r="F110" s="36">
         <v>2</v>
       </c>
     </row>
@@ -3826,19 +3823,19 @@
       <c r="A111" t="s">
         <v>307</v>
       </c>
-      <c r="B111" s="34" t="s">
+      <c r="B111" s="33" t="s">
         <v>218</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="37">
         <v>20.5</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F111" s="36">
         <v>4</v>
       </c>
     </row>
@@ -3846,19 +3843,19 @@
       <c r="A112" t="s">
         <v>307</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="11" t="s">
         <v>220</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="37">
         <v>34.15</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F112" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3866,19 +3863,19 @@
       <c r="A113" t="s">
         <v>307</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="11" t="s">
         <v>222</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="37">
         <v>34.15</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F113" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3886,19 +3883,19 @@
       <c r="A114" t="s">
         <v>307</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="12" t="s">
         <v>224</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="37">
         <v>76.350000000000009</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F114" s="6">
+      <c r="F114" s="36">
         <v>2</v>
       </c>
     </row>
@@ -3906,13 +3903,13 @@
       <c r="B115" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="37">
         <v>6.55</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F115" s="6">
+      <c r="F115" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3923,13 +3920,13 @@
       <c r="C116" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="37">
         <v>8.5</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F116" s="6">
+      <c r="F116" s="36">
         <v>3</v>
       </c>
     </row>
@@ -3940,13 +3937,13 @@
       <c r="C117" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="37">
         <v>8.5</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F117" s="6">
+      <c r="F117" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3957,13 +3954,13 @@
       <c r="C118" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="37">
         <v>8.5</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F118" s="6">
+      <c r="F118" s="36">
         <v>6</v>
       </c>
     </row>
@@ -3971,19 +3968,19 @@
       <c r="A119" t="s">
         <v>308</v>
       </c>
-      <c r="B119" s="22" t="s">
+      <c r="B119" s="21" t="s">
         <v>234</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="37">
         <v>46.35</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F119" s="6">
+      <c r="F119" s="36">
         <v>3</v>
       </c>
     </row>
@@ -3991,19 +3988,19 @@
       <c r="A120" t="s">
         <v>308</v>
       </c>
-      <c r="B120" s="22" t="s">
+      <c r="B120" s="21" t="s">
         <v>236</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="37">
         <v>46.35</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F120" s="36">
         <v>2</v>
       </c>
     </row>
@@ -4011,19 +4008,19 @@
       <c r="A121" t="s">
         <v>308</v>
       </c>
-      <c r="B121" s="23" t="s">
+      <c r="B121" s="22" t="s">
         <v>238</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="37">
         <v>107.35000000000001</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F121" s="6">
+      <c r="F121" s="36">
         <v>2</v>
       </c>
     </row>
@@ -4031,19 +4028,19 @@
       <c r="A122" t="s">
         <v>302</v>
       </c>
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="29" t="s">
         <v>240</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="37">
         <v>52</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F122" s="6">
+      <c r="F122" s="36">
         <v>4</v>
       </c>
     </row>
@@ -4051,19 +4048,19 @@
       <c r="A123" t="s">
         <v>302</v>
       </c>
-      <c r="B123" s="30" t="s">
+      <c r="B123" s="29" t="s">
         <v>242</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="37">
         <v>52</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F123" s="6">
+      <c r="F123" s="36">
         <v>0</v>
       </c>
     </row>
@@ -4071,19 +4068,19 @@
       <c r="A124" t="s">
         <v>302</v>
       </c>
-      <c r="B124" s="30" t="s">
+      <c r="B124" s="29" t="s">
         <v>244</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="37">
         <v>52</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F124" s="6">
+      <c r="F124" s="36">
         <v>2</v>
       </c>
     </row>
@@ -4091,19 +4088,19 @@
       <c r="A125" t="s">
         <v>302</v>
       </c>
-      <c r="B125" s="35" t="s">
+      <c r="B125" s="34" t="s">
         <v>246</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="37">
         <v>95.990000000000009</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F125" s="6">
+      <c r="F125" s="36">
         <v>3</v>
       </c>
     </row>
@@ -4111,19 +4108,19 @@
       <c r="A126" t="s">
         <v>302</v>
       </c>
-      <c r="B126" s="35" t="s">
+      <c r="B126" s="34" t="s">
         <v>248</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="37">
         <v>114.49000000000001</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F126" s="6">
+      <c r="F126" s="36">
         <v>2</v>
       </c>
     </row>
@@ -4131,19 +4128,19 @@
       <c r="A127" t="s">
         <v>302</v>
       </c>
-      <c r="B127" s="35" t="s">
+      <c r="B127" s="34" t="s">
         <v>250</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="37">
         <v>95.990000000000009</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F127" s="6">
+      <c r="F127" s="36">
         <v>1</v>
       </c>
     </row>
@@ -4151,19 +4148,19 @@
       <c r="A128" t="s">
         <v>302</v>
       </c>
-      <c r="B128" s="36" t="s">
+      <c r="B128" s="35" t="s">
         <v>252</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="37">
         <v>212</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F128" s="6">
+      <c r="F128" s="36">
         <v>2</v>
       </c>
     </row>
@@ -4171,19 +4168,19 @@
       <c r="A129" t="s">
         <v>302</v>
       </c>
-      <c r="B129" s="36" t="s">
+      <c r="B129" s="35" t="s">
         <v>254</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="37">
         <v>212</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F129" s="6">
+      <c r="F129" s="36">
         <v>4</v>
       </c>
     </row>
@@ -4191,19 +4188,19 @@
       <c r="A130" t="s">
         <v>302</v>
       </c>
-      <c r="B130" s="36" t="s">
+      <c r="B130" s="35" t="s">
         <v>256</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="37">
         <v>212</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F130" s="6">
+      <c r="F130" s="36">
         <v>0</v>
       </c>
     </row>
@@ -4214,13 +4211,13 @@
       <c r="C131" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="37">
         <v>63.4</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F131" s="6">
+      <c r="F131" s="36">
         <v>0</v>
       </c>
     </row>
@@ -4231,13 +4228,13 @@
       <c r="C132" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="37">
         <v>40</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F132" s="6">
+      <c r="F132" s="36">
         <v>2</v>
       </c>
     </row>
@@ -4248,13 +4245,13 @@
       <c r="C133" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="37">
         <v>71.989999999999995</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F133" s="6">
+      <c r="F133" s="36">
         <v>1</v>
       </c>
     </row>
@@ -4265,13 +4262,13 @@
       <c r="C134" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="37">
         <v>108.31</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F134" s="6">
+      <c r="F134" s="36">
         <v>1</v>
       </c>
     </row>
@@ -4282,13 +4279,13 @@
       <c r="C135" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="37">
         <v>73.650000000000006</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F135" s="6">
+      <c r="F135" s="36">
         <v>0</v>
       </c>
     </row>
@@ -4299,13 +4296,13 @@
       <c r="C136" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="37">
         <v>73.650000000000006</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F136" s="6">
+      <c r="F136" s="36">
         <v>2</v>
       </c>
     </row>
@@ -4316,13 +4313,13 @@
       <c r="C137" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="37">
         <v>190</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F137" s="6">
+      <c r="F137" s="36">
         <v>1</v>
       </c>
     </row>
@@ -4333,13 +4330,13 @@
       <c r="C138" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="37">
         <v>67</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F138" s="6">
+      <c r="F138" s="36">
         <v>1</v>
       </c>
     </row>
